--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1633440.76047715</v>
+        <v>-1635390.98630571</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15410924.29148958</v>
+        <v>15410924.29148959</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.0584626286798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>160.8117493616809</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>165.7347661596642</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.04843545227459</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>161.0094524652176</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.0044783406138</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>21.08546083768438</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>148.3681250208878</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>269.027508828177</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>236.5646427200822</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>176.7152397507133</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>9.89868258153553</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>40.71096332175367</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>270.0765570419051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>78.39617803113008</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>78.31227899301565</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>216.4586446023289</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>240.4516153236401</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>73.21532344290709</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>66.90445977359197</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463035</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941875</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463138</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415277</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539613</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>743.7803294724181</v>
+        <v>1003.305417328934</v>
       </c>
       <c r="C2" t="n">
-        <v>374.8178125320063</v>
+        <v>634.3429003885219</v>
       </c>
       <c r="D2" t="n">
-        <v>374.8178125320063</v>
+        <v>634.3429003885219</v>
       </c>
       <c r="E2" t="n">
-        <v>374.8178125320063</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>374.8178125320063</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2116.139670924249</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1763.371015654135</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1389.905257393055</v>
       </c>
       <c r="Y2" t="n">
-        <v>877.172715966034</v>
+        <v>1389.905257393055</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,25 +4419,25 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>569.538602044198</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>569.538602044198</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>569.538602044198</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>569.538602044198</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>569.538602044198</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.2778626358874</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>955.6137797395156</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>569.8255271412713</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2316.076120912494</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2062.314335550585</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1731.251448207015</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1378.482792936901</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1005.017034675821</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.8777027000092</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>456.3840257941342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1031.077791139709</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="C8" t="n">
-        <v>1031.077791139709</v>
+        <v>1061.392936884223</v>
       </c>
       <c r="D8" t="n">
-        <v>1031.077791139709</v>
+        <v>1061.392936884223</v>
       </c>
       <c r="E8" t="n">
-        <v>1031.077791139709</v>
+        <v>1061.392936884223</v>
       </c>
       <c r="F8" t="n">
-        <v>620.0918863501013</v>
+        <v>650.4070320946153</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>232.4432239928021</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.217123115521</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1031.077791139709</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,10 +5036,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>751.4342788065931</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>601.3176393942573</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>453.4045458118642</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>306.5145983139538</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>138.3392766337744</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771463</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771463</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>936.9830286988315</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>708.9934778008142</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.9934778008142</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="14">
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>678.2225136306376</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.653108502425</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1308.653108502425</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1308.653108502425</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V16" t="n">
-        <v>1308.653108502425</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W16" t="n">
-        <v>1308.653108502425</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X16" t="n">
-        <v>1080.663557604408</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y16" t="n">
-        <v>859.8709784608774</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5598,16 +5598,16 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1280.271174999994</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>991.1425362135525</v>
+        <v>1256.035851039074</v>
       </c>
       <c r="V19" t="n">
-        <v>736.4580480076656</v>
+        <v>1256.035851039074</v>
       </c>
       <c r="W19" t="n">
-        <v>447.040877970705</v>
+        <v>1256.035851039074</v>
       </c>
       <c r="X19" t="n">
-        <v>447.040877970705</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5932,25 +5932,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5978,34 +5978,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578535</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578535</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578535</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578535</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578535</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578535</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982963</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6406,7 +6406,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S28" t="n">
         <v>1865.165908942116</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6634,37 +6634,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,46 +6701,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6838,28 +6838,28 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,16 +6889,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010317</v>
@@ -6914,31 +6914,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,37 +6947,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,28 +7400,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,13 +7433,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,25 +7476,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7151863772038</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>96.03744927814711</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>221.1186207105809</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>248.0494038611308</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>108.2028650457825</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44644129468594</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>119.5246319524732</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>207.9250734055617</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>5.088916456060332</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>45.78573707493726</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>124.7054865406962</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>99.58910868978562</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-5.064837566025722e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1297524.835099871</v>
+        <v>1297524.835099872</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1297524.835099871</v>
+        <v>1297524.835099872</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016741</v>
+        <v>77466.06243016743</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78205.81194754176</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78205.81194754172</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78205.81194754179</v>
+      </c>
+      <c r="I2" t="n">
+        <v>78205.81194754176</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82104.17698642846</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642847</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642828</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642831</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82104.17698642834</v>
-      </c>
-      <c r="E2" t="n">
-        <v>78205.81194754173</v>
-      </c>
-      <c r="F2" t="n">
-        <v>78205.81194754176</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78205.81194754175</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78205.81194754176</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78205.81194754178</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82104.17698642847</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.1769864283</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.1769864284</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642827</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642837</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>121444.2179016484</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732803</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716805.1127494348</v>
+        <v>-716921.0656133414</v>
       </c>
       <c r="C6" t="n">
         <v>-148671.949792902</v>
@@ -26528,40 +26528,40 @@
         <v>-148671.949792902</v>
       </c>
       <c r="E6" t="n">
-        <v>-546858.2821340788</v>
+        <v>-546955.7412600504</v>
       </c>
       <c r="F6" t="n">
-        <v>-21698.24565718236</v>
+        <v>-21795.70478315454</v>
       </c>
       <c r="G6" t="n">
-        <v>-21698.24565718237</v>
+        <v>-21795.70478315456</v>
       </c>
       <c r="H6" t="n">
-        <v>-21698.24565718234</v>
+        <v>-21795.70478315448</v>
       </c>
       <c r="I6" t="n">
-        <v>-21698.24565718239</v>
+        <v>-21795.70478315452</v>
       </c>
       <c r="J6" t="n">
         <v>-276875.1790272303</v>
       </c>
       <c r="K6" t="n">
-        <v>-45946.44773092505</v>
+        <v>-45946.44773092485</v>
       </c>
       <c r="L6" t="n">
-        <v>-45946.44773092496</v>
+        <v>-45946.44773092508</v>
       </c>
       <c r="M6" t="n">
-        <v>-180747.4629647623</v>
+        <v>-180747.4629647621</v>
       </c>
       <c r="N6" t="n">
         <v>-45946.44773092499</v>
       </c>
       <c r="O6" t="n">
-        <v>-100451.9598346375</v>
+        <v>-100451.9598346376</v>
       </c>
       <c r="P6" t="n">
-        <v>-45946.44773092498</v>
+        <v>-45946.44773092499</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,22 +26756,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964061</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964061</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250.6753790348008</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.7038230178603</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>6.237368633410227</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>55.14106060940506</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>385.7905849040271</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>68.08019533676998</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>17.49548950841404</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>177.2195273007128</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>147.2075330136439</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>28.31325977179807</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>276.6243157550555</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.073837398105146e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056057</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,10 +35975,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>536.1008625915819</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>406.4618263286133</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L28" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O28" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
